--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202530E-EDFB-4D40-A90A-32CDBB6B8C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96EFAB-1718-46B9-8B0A-26ACBCDD81BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -456,6 +456,14 @@
   </si>
   <si>
     <t>BrNo,CustNo,FacmNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS400範例檔目前空白</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +792,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,22 +1141,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="15" customWidth="1"/>
     <col min="3" max="3" width="28" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="6"/>
+    <col min="8" max="16384" width="21.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1173,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="7" t="s">
@@ -1175,7 +1186,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1201,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
@@ -1201,7 +1212,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1225,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1236,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="36" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1247,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="14" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1259,7 +1270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -1278,7 +1289,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -1298,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1316,7 +1327,7 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1336,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="20" customFormat="1">
       <c r="A13" s="22">
         <v>5</v>
       </c>
@@ -1355,7 +1366,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="20" customFormat="1">
       <c r="A14" s="22">
         <v>6</v>
       </c>
@@ -1374,7 +1385,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1392,7 +1403,7 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -1410,7 +1421,7 @@
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="22">
         <v>9</v>
       </c>
@@ -1430,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="22">
         <v>10</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="22">
         <v>11</v>
       </c>
@@ -1470,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="22">
         <v>12</v>
       </c>
@@ -1490,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="22">
         <v>13</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="22">
         <v>14</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="22">
         <v>15</v>
       </c>
@@ -1550,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="22">
         <v>16</v>
       </c>
@@ -1568,7 +1579,7 @@
       </c>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="22">
         <v>17</v>
       </c>
@@ -1586,7 +1597,7 @@
       </c>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="22">
         <v>18</v>
       </c>
@@ -1604,7 +1615,7 @@
       </c>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="22">
         <v>19</v>
       </c>
@@ -1624,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="22">
         <v>20</v>
       </c>
@@ -1644,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="22">
         <v>21</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="22">
         <v>22</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="22">
         <v>23</v>
       </c>
@@ -1701,8 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G31" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="22">
         <v>24</v>
       </c>
@@ -1719,8 +1733,11 @@
         <v>15</v>
       </c>
       <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G32" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="22">
         <v>25</v>
       </c>
@@ -1737,8 +1754,9 @@
         <v>10</v>
       </c>
       <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G33" s="40"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="22">
         <v>26</v>
       </c>
@@ -1755,8 +1773,9 @@
         <v>15</v>
       </c>
       <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G34" s="40"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="22">
         <v>27</v>
       </c>
@@ -1773,8 +1792,11 @@
         <v>10</v>
       </c>
       <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G35" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="22">
         <v>28</v>
       </c>
@@ -1791,8 +1813,11 @@
         <v>15</v>
       </c>
       <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G36" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="22">
         <v>29</v>
       </c>
@@ -1809,8 +1834,9 @@
         <v>10</v>
       </c>
       <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G37" s="40"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="22">
         <v>30</v>
       </c>
@@ -1827,8 +1853,9 @@
         <v>15</v>
       </c>
       <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G38" s="40"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="22">
         <v>31</v>
       </c>
@@ -1845,8 +1872,11 @@
         <v>10</v>
       </c>
       <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G39" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="22">
         <v>32</v>
       </c>
@@ -1863,8 +1893,11 @@
         <v>15</v>
       </c>
       <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G40" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="22">
         <v>33</v>
       </c>
@@ -1882,7 +1915,7 @@
       </c>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="22">
         <v>34</v>
       </c>
@@ -1900,7 +1933,7 @@
       </c>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="22">
         <v>35</v>
       </c>
@@ -1918,7 +1951,7 @@
       </c>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="22">
         <v>36</v>
       </c>
@@ -1936,7 +1969,7 @@
       </c>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="22">
         <v>37</v>
       </c>
@@ -1954,7 +1987,7 @@
       </c>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="22">
         <v>38</v>
       </c>
@@ -1996,15 +2029,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="31" t="s">
         <v>92</v>
       </c>
@@ -2023,16 +2056,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="23"/>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="23"/>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96EFAB-1718-46B9-8B0A-26ACBCDD81BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67792D-4308-485C-9157-030BEA9E563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -377,16 +387,7 @@
   </si>
   <si>
     <t>CalDate</t>
-  </si>
-  <si>
-    <t>CalDate</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCalDate</t>
-  </si>
-  <si>
-    <t>CalDate =</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode</t>
@@ -673,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,9 +768,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -782,6 +780,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -792,9 +793,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
@@ -1165,12 +1163,12 @@
         <v>19</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="35" t="s">
-        <v>109</v>
+      <c r="G1" s="34" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1192,7 +1190,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1217,9 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="39"/>
-      <c r="C5" s="28" t="s">
-        <v>90</v>
-      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
@@ -1332,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>48</v>
@@ -1351,8 +1347,8 @@
       <c r="A13" s="22">
         <v>5</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>100</v>
+      <c r="B13" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>49</v>
@@ -1370,8 +1366,8 @@
       <c r="A14" s="22">
         <v>6</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>101</v>
+      <c r="B14" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>50</v>
@@ -1393,7 +1389,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>73</v>
@@ -1411,12 +1407,12 @@
         <v>26</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>6</v>
       </c>
       <c r="F16" s="24"/>
@@ -1429,7 +1425,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>73</v>
@@ -1446,10 +1442,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>76</v>
@@ -1466,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>53</v>
@@ -1486,7 +1482,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>54</v>
@@ -1506,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>55</v>
@@ -1526,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>56</v>
@@ -1546,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>57</v>
@@ -1703,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>84</v>
@@ -1712,8 +1708,8 @@
         <v>10</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="40" t="s">
-        <v>113</v>
+      <c r="G31" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1724,7 +1720,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>76</v>
@@ -1733,8 +1729,8 @@
         <v>15</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="40" t="s">
-        <v>113</v>
+      <c r="G32" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1754,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22">
@@ -1773,7 +1769,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="40"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="22">
@@ -1792,8 +1788,8 @@
         <v>10</v>
       </c>
       <c r="F35" s="24"/>
-      <c r="G35" s="40" t="s">
-        <v>112</v>
+      <c r="G35" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1813,8 +1809,8 @@
         <v>15</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="40" t="s">
-        <v>112</v>
+      <c r="G36" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1834,7 +1830,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="24"/>
-      <c r="G37" s="40"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="22">
@@ -1853,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="24"/>
-      <c r="G38" s="40"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="22">
@@ -1872,8 +1868,8 @@
         <v>10</v>
       </c>
       <c r="F39" s="24"/>
-      <c r="G39" s="40" t="s">
-        <v>112</v>
+      <c r="G39" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1893,8 +1889,8 @@
         <v>15</v>
       </c>
       <c r="F40" s="24"/>
-      <c r="G40" s="40" t="s">
-        <v>112</v>
+      <c r="G40" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1920,7 +1916,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>68</v>
@@ -2022,11 +2018,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2049,24 +2045,16 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>93</v>
-      </c>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="23"/>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="23"/>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC67792D-4308-485C-9157-030BEA9E563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDC934-E71A-4628-85EF-1AA6E3EAF3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>統一編號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>員工姓名</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -432,14 +428,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>統一編號(單位主管)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工姓名(單位主管)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>ActAmt</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -464,7 +452,35 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>OK</t>
+    <t>CdEmp.AgLevel='E'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdEmp.AgLevel='H'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號(單位主管/處長)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號(主任)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號(組長)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdEmp.AgLevel='K'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號(展業代表)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdEmp.AgLevel='Z'</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1139,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
@@ -1163,12 +1179,12 @@
         <v>19</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1190,7 +1206,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1271,13 +1287,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="26">
         <v>4</v>
@@ -1290,13 +1306,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="26">
         <v>7</v>
@@ -1310,13 +1326,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="24">
         <v>3</v>
@@ -1328,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="24">
         <v>14</v>
@@ -1348,13 +1364,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="24">
         <v>1</v>
@@ -1367,13 +1383,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
@@ -1389,10 +1405,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="24">
         <v>30</v>
@@ -1407,10 +1423,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="31">
         <v>6</v>
@@ -1425,10 +1441,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="24">
         <v>10</v>
@@ -1442,13 +1458,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="24">
         <v>15</v>
@@ -1462,13 +1478,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="24">
         <v>6</v>
@@ -1482,13 +1498,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="24">
         <v>50</v>
@@ -1502,13 +1518,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="24">
         <v>6</v>
@@ -1522,13 +1538,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="24">
         <v>20</v>
@@ -1542,13 +1558,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="24">
         <v>20</v>
@@ -1568,7 +1584,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="24">
         <v>20</v>
@@ -1586,7 +1602,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="24">
         <v>8</v>
@@ -1604,7 +1620,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="24">
         <v>2</v>
@@ -1622,7 +1638,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="24">
         <v>14</v>
@@ -1642,7 +1658,7 @@
         <v>62</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="24">
         <v>14</v>
@@ -1662,7 +1678,7 @@
         <v>63</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="24">
         <v>14</v>
@@ -1682,7 +1698,7 @@
         <v>64</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="24">
         <v>14</v>
@@ -1699,17 +1715,17 @@
         <v>34</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="24">
         <v>10</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1720,18 +1736,16 @@
         <v>35</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="24">
         <v>15</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="35" t="s">
-        <v>110</v>
-      </c>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22">
@@ -1741,16 +1755,18 @@
         <v>36</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="24">
         <v>10</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="35"/>
+      <c r="G33" s="35" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22">
@@ -1763,7 +1779,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="24">
         <v>15</v>
@@ -1779,17 +1795,17 @@
         <v>37</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="24">
         <v>10</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1800,18 +1816,16 @@
         <v>22</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="24">
         <v>15</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="35" t="s">
-        <v>109</v>
-      </c>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="22">
@@ -1821,16 +1835,18 @@
         <v>24</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="24">
         <v>10</v>
       </c>
       <c r="F37" s="24"/>
-      <c r="G37" s="35"/>
+      <c r="G37" s="35" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="22">
@@ -1840,10 +1856,10 @@
         <v>23</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E38" s="24">
         <v>15</v>
@@ -1862,14 +1878,14 @@
         <v>51</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="24">
         <v>10</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1880,17 +1896,17 @@
         <v>39</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="24">
         <v>15</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1901,10 +1917,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="24">
         <v>7</v>
@@ -1916,13 +1932,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="24">
         <v>8</v>
@@ -1937,10 +1953,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E43" s="24">
         <v>8</v>
@@ -1955,10 +1971,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="24">
         <v>6</v>
@@ -1973,10 +1989,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="24">
         <v>8</v>
@@ -1991,10 +2007,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="24">
         <v>6</v>
@@ -2020,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDC934-E71A-4628-85EF-1AA6E3EAF3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E206D1-E3FA-4DAB-8EC8-0ECE1253E4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -481,6 +481,10 @@
   </si>
   <si>
     <t>CdEmp.AgLevel='Z'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1155,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
@@ -1332,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="24">
         <v>3</v>
@@ -1407,13 +1411,15 @@
       <c r="C15" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="24">
-        <v>30</v>
-      </c>
-      <c r="F15" s="24"/>
+      <c r="D15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="31">
+        <v>14</v>
+      </c>
+      <c r="F15" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="22">
@@ -1506,8 +1512,8 @@
       <c r="D20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="24">
-        <v>50</v>
+      <c r="E20" s="31">
+        <v>6</v>
       </c>
       <c r="F20" s="24">
         <v>2</v>
@@ -1543,8 +1549,8 @@
       <c r="C22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>72</v>
+      <c r="D22" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="24">
         <v>20</v>
@@ -1563,8 +1569,8 @@
       <c r="C23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>80</v>
+      <c r="D23" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="E23" s="24">
         <v>20</v>
@@ -1583,8 +1589,8 @@
       <c r="C24" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>72</v>
+      <c r="D24" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="E24" s="24">
         <v>20</v>
@@ -1601,8 +1607,8 @@
       <c r="C25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>72</v>
+      <c r="D25" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="24">
         <v>8</v>
@@ -1718,7 +1724,7 @@
         <v>109</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E31" s="24">
         <v>10</v>
@@ -1926,6 +1932,9 @@
         <v>7</v>
       </c>
       <c r="F41" s="24"/>
+      <c r="G41" s="35" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="22">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E206D1-E3FA-4DAB-8EC8-0ECE1253E4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3969B4DA-A548-49FB-9554-82A4E564BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>基本利率代碼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>二階換算業績</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -485,6 +481,10 @@
   </si>
   <si>
     <t>default 1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品代碼/基本利率代碼</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
@@ -1183,12 +1183,12 @@
         <v>19</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1291,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="26">
         <v>4</v>
@@ -1310,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="26">
         <v>7</v>
@@ -1330,13 +1330,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="24">
         <v>3</v>
@@ -1348,13 +1348,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="24">
         <v>14</v>
@@ -1368,13 +1368,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="24">
         <v>1</v>
@@ -1387,13 +1387,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
@@ -1409,10 +1409,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="31">
         <v>14</v>
@@ -1429,10 +1429,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="31">
         <v>6</v>
@@ -1447,10 +1447,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="24">
         <v>10</v>
@@ -1464,13 +1464,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="24">
         <v>15</v>
@@ -1484,13 +1484,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="24">
         <v>6</v>
@@ -1504,13 +1504,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="31">
         <v>6</v>
@@ -1524,13 +1524,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="24">
         <v>6</v>
@@ -1544,13 +1544,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="24">
         <v>20</v>
@@ -1564,13 +1564,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="24">
         <v>20</v>
@@ -1590,7 +1590,7 @@
         <v>58</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="24">
         <v>20</v>
@@ -1608,7 +1608,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="24">
         <v>8</v>
@@ -1622,14 +1622,14 @@
       <c r="B26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>60</v>
+      <c r="C26" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="24">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="E26" s="31">
+        <v>5</v>
       </c>
       <c r="F26" s="24"/>
     </row>
@@ -1641,10 +1641,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="24">
         <v>14</v>
@@ -1661,10 +1661,10 @@
         <v>31</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="24">
         <v>14</v>
@@ -1681,10 +1681,10 @@
         <v>32</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="24">
         <v>14</v>
@@ -1701,10 +1701,10 @@
         <v>33</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="24">
         <v>14</v>
@@ -1721,17 +1721,17 @@
         <v>34</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="24">
         <v>10</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1745,7 +1745,7 @@
         <v>52</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="24">
         <v>15</v>
@@ -1761,17 +1761,17 @@
         <v>36</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="24">
         <v>10</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1785,7 +1785,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="24">
         <v>15</v>
@@ -1801,17 +1801,17 @@
         <v>37</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="24">
         <v>10</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1822,10 +1822,10 @@
         <v>22</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="24">
         <v>15</v>
@@ -1841,17 +1841,17 @@
         <v>24</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="24">
         <v>10</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1862,10 +1862,10 @@
         <v>23</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="24">
         <v>15</v>
@@ -1884,14 +1884,14 @@
         <v>51</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="24">
         <v>10</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1902,17 +1902,17 @@
         <v>39</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="24">
         <v>15</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1923,17 +1923,17 @@
         <v>40</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="24">
         <v>7</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1941,13 +1941,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="24">
         <v>8</v>
@@ -1962,10 +1962,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" s="24">
         <v>8</v>
@@ -1980,10 +1980,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E44" s="24">
         <v>6</v>
@@ -1998,10 +1998,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E45" s="24">
         <v>8</v>
@@ -2016,10 +2016,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="24">
         <v>6</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3969B4DA-A548-49FB-9554-82A4E564BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D73EF-E3E1-43F5-8491-AC3CB10B210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -485,6 +475,10 @@
   </si>
   <si>
     <t>商品代碼/基本利率代碼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-04 Wei from 琦欣 內網只開兩碼長</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,10 +701,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -722,9 +716,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -737,9 +728,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -749,54 +737,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +760,21 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -837,9 +798,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -877,9 +838,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,26 +873,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,26 +908,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1159,111 +1086,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="6"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="36" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="36" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1">
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1282,15 +1209,15 @@
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="22">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -1302,14 +1229,16 @@
       <c r="E9" s="26">
         <v>4</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22">
+      <c r="F9" s="26"/>
+      <c r="G9" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -1321,15 +1250,15 @@
       <c r="E10" s="26">
         <v>7</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -1338,16 +1267,16 @@
       <c r="D11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="26">
         <v>3</v>
       </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="22">
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -1356,18 +1285,18 @@
       <c r="D12" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="26">
         <v>14</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="20" customFormat="1">
-      <c r="A13" s="22">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -1376,17 +1305,16 @@
       <c r="D13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="26">
         <v>1</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
-      <c r="A14" s="22">
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="27" t="s">
         <v>96</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -1395,34 +1323,33 @@
       <c r="D14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="22">
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="26">
         <v>14</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="22">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -1434,13 +1361,13 @@
       <c r="D16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="26">
         <v>6</v>
       </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="22">
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -1452,18 +1379,18 @@
       <c r="D17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="26">
         <v>10</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="22">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -1472,18 +1399,18 @@
       <c r="D18" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="26">
         <v>15</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="22">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -1492,18 +1419,18 @@
       <c r="D19" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="26">
         <v>6</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="22">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -1512,18 +1439,18 @@
       <c r="D20" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="26">
         <v>6</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="22">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1532,15 +1459,15 @@
       <c r="D21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="26">
         <v>6</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="22">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -1549,38 +1476,38 @@
       <c r="C22" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="26">
         <v>20</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="22">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="25" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="26">
         <v>20</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="22">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>16</v>
       </c>
       <c r="B24" s="25" t="s">
@@ -1589,16 +1516,16 @@
       <c r="C24" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="26">
         <v>20</v>
       </c>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="22">
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <v>17</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -1607,34 +1534,34 @@
       <c r="C25" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="26">
         <v>8</v>
       </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="22">
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>18</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>115</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="26">
         <v>5</v>
       </c>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="22">
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>19</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -1646,15 +1573,15 @@
       <c r="D27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="26">
         <v>14</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="22">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>20</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -1666,15 +1593,15 @@
       <c r="D28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="26">
         <v>14</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="22">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>21</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -1686,15 +1613,15 @@
       <c r="D29" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="26">
         <v>14</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="22">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
         <v>22</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -1706,15 +1633,15 @@
       <c r="D30" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="26">
         <v>14</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="22">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
         <v>23</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -1726,16 +1653,16 @@
       <c r="D31" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="26">
         <v>10</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="35" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="22">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
         <v>24</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -1747,14 +1674,14 @@
       <c r="D32" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="26">
         <v>15</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="22">
+      <c r="F32" s="26"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
         <v>25</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -1766,16 +1693,16 @@
       <c r="D33" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="26">
         <v>10</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="35" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="22">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
         <v>26</v>
       </c>
       <c r="B34" s="25" t="s">
@@ -1787,14 +1714,14 @@
       <c r="D34" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="26">
         <v>15</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="22">
+      <c r="F34" s="26"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
         <v>27</v>
       </c>
       <c r="B35" s="25" t="s">
@@ -1806,16 +1733,16 @@
       <c r="D35" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="26">
         <v>10</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="35" t="s">
+      <c r="F35" s="26"/>
+      <c r="G35" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="22">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
         <v>28</v>
       </c>
       <c r="B36" s="25" t="s">
@@ -1827,14 +1754,14 @@
       <c r="D36" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="26">
         <v>15</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="22">
+      <c r="F36" s="26"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -1846,16 +1773,16 @@
       <c r="D37" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="26">
         <v>10</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="35" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="22">
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
         <v>30</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -1867,14 +1794,14 @@
       <c r="D38" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="26">
         <v>15</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="22">
+      <c r="F38" s="26"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
         <v>31</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -1886,16 +1813,16 @@
       <c r="D39" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="26">
         <v>10</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="35" t="s">
+      <c r="F39" s="26"/>
+      <c r="G39" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="22">
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
         <v>32</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -1907,16 +1834,16 @@
       <c r="D40" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="26">
         <v>15</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="35" t="s">
+      <c r="F40" s="26"/>
+      <c r="G40" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="22">
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
         <v>33</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -1928,19 +1855,19 @@
       <c r="D41" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="26">
         <v>7</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="35" t="s">
+      <c r="F41" s="26"/>
+      <c r="G41" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="22">
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
         <v>34</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="25" t="s">
@@ -1949,13 +1876,13 @@
       <c r="D42" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="26">
         <v>8</v>
       </c>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="22">
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
         <v>35</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -1967,13 +1894,13 @@
       <c r="D43" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="26">
         <v>8</v>
       </c>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="22">
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
         <v>36</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -1985,13 +1912,13 @@
       <c r="D44" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="26">
         <v>6</v>
       </c>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="22">
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
         <v>37</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -2003,13 +1930,13 @@
       <c r="D45" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="26">
         <v>8</v>
       </c>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="22">
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
         <v>38</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -2021,9 +1948,10 @@
       <c r="D46" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="26">
         <v>6</v>
       </c>
+      <c r="F46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2050,15 +1978,15 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2069,17 +1997,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="23"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="23"/>
+    <row r="3" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/HlThreeDetail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D73EF-E3E1-43F5-8491-AC3CB10B210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5597C-5236-49A3-87D8-988476F0C975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -352,10 +348,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>BrNo</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -480,6 +472,9 @@
   <si>
     <t>2023-09-04 Wei from 琦欣 內網只開兩碼長</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -688,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +744,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -760,21 +767,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1086,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1102,25 +1094,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1132,12 +1124,12 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>18</v>
@@ -1147,10 +1139,10 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="4"/>
@@ -1158,10 +1150,10 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="3"/>
       <c r="D5" s="11"/>
       <c r="E5" s="4"/>
@@ -1169,10 +1161,10 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3"/>
       <c r="D6" s="11"/>
       <c r="E6" s="4"/>
@@ -1180,10 +1172,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="3"/>
       <c r="D7" s="11"/>
       <c r="E7" s="4"/>
@@ -1217,40 +1209,40 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="22">
         <v>4</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24" t="s">
-        <v>116</v>
+      <c r="F9" s="22"/>
+      <c r="G9" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="22">
         <v>7</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1258,37 +1250,37 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <v>3</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="22">
         <v>14</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1296,55 +1288,55 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>1</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="22">
         <v>14</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1352,37 +1344,37 @@
       <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="22">
         <v>6</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="22">
         <v>10</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1390,19 +1382,19 @@
       <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="B18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="22">
         <v>15</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1410,19 +1402,19 @@
       <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="22">
         <v>6</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1430,19 +1422,19 @@
       <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="22">
         <v>6</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1450,19 +1442,19 @@
       <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="22">
         <v>6</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1470,19 +1462,19 @@
       <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="22">
         <v>20</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1490,19 +1482,19 @@
       <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="22">
         <v>20</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1510,73 +1502,73 @@
       <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="22">
         <v>20</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>17</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="22">
         <v>8</v>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>18</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <v>5</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="22">
         <v>14</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1584,19 +1576,19 @@
       <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="22">
         <v>14</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1604,19 +1596,19 @@
       <c r="A29" s="16">
         <v>21</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="26">
+      <c r="D29" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="22">
         <v>14</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1624,19 +1616,19 @@
       <c r="A30" s="16">
         <v>22</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="D30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="22">
         <v>14</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1644,314 +1636,309 @@
       <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="25" t="s">
+      <c r="C31" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="22">
         <v>10</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="22">
         <v>15</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="25" t="s">
+      <c r="C33" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="22">
         <v>10</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>26</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="22">
         <v>15</v>
       </c>
-      <c r="F34" s="26"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>27</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="25" t="s">
+      <c r="C35" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="22">
         <v>10</v>
       </c>
-      <c r="F35" s="26"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>28</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="22">
         <v>15</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>29</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="25" t="s">
+      <c r="C37" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="22">
         <v>10</v>
       </c>
-      <c r="F37" s="26"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="22">
         <v>15</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>31</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="26">
+      <c r="D39" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="22">
         <v>10</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>32</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="D40" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="22">
         <v>15</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>33</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="22">
         <v>7</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>34</v>
       </c>
-      <c r="B42" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="22">
         <v>8</v>
       </c>
-      <c r="F42" s="26"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>35</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="26">
-        <v>8</v>
-      </c>
-      <c r="F43" s="26"/>
+      <c r="D43" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>36</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="26">
+      <c r="D44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="22">
         <v>6</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>37</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="26">
-        <v>8</v>
-      </c>
-      <c r="F45" s="26"/>
+      <c r="D45" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>38</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="22">
         <v>6</v>
       </c>
-      <c r="F46" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
